--- a/odds/0755 Fantasy Football 2025 Betting Odds.xlsx
+++ b/odds/0755 Fantasy Football 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
   <si>
     <t>Record</t>
   </si>
@@ -84,25 +84,67 @@
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.8%</t>
-  </si>
-  <si>
-    <t>99.2%</t>
-  </si>
-  <si>
-    <t>98.7%</t>
-  </si>
-  <si>
-    <t>94.4%</t>
-  </si>
-  <si>
-    <t>70.9%</t>
-  </si>
-  <si>
-    <t>21.0%</t>
-  </si>
-  <si>
-    <t>15.4%</t>
+    <t>99.7%</t>
+  </si>
+  <si>
+    <t>99.6%</t>
+  </si>
+  <si>
+    <t>97.9%</t>
+  </si>
+  <si>
+    <t>96.0%</t>
+  </si>
+  <si>
+    <t>71.5%</t>
+  </si>
+  <si>
+    <t>20.3%</t>
+  </si>
+  <si>
+    <t>14.6%</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>-∞</t>
+  </si>
+  <si>
+    <t>-33233</t>
+  </si>
+  <si>
+    <t>-24900</t>
+  </si>
+  <si>
+    <t>-4662</t>
+  </si>
+  <si>
+    <t>-2400</t>
+  </si>
+  <si>
+    <t>-251</t>
+  </si>
+  <si>
+    <t>+393</t>
+  </si>
+  <si>
+    <t>+585</t>
+  </si>
+  <si>
+    <t>+33233</t>
+  </si>
+  <si>
+    <t>+99900</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>99.1%</t>
   </si>
   <si>
     <t>0.6%</t>
@@ -111,28 +153,7 @@
     <t>0.0%</t>
   </si>
   <si>
-    <t>-∞</t>
-  </si>
-  <si>
-    <t>-49900</t>
-  </si>
-  <si>
-    <t>-12400</t>
-  </si>
-  <si>
-    <t>-7592</t>
-  </si>
-  <si>
-    <t>-1686</t>
-  </si>
-  <si>
-    <t>-244</t>
-  </si>
-  <si>
-    <t>+376</t>
-  </si>
-  <si>
-    <t>+549</t>
+    <t>-11011</t>
   </si>
   <si>
     <t>+16567</t>
@@ -141,37 +162,22 @@
     <t>+∞</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>+99900</t>
-  </si>
-  <si>
-    <t>72.3%</t>
-  </si>
-  <si>
-    <t>24.4%</t>
-  </si>
-  <si>
-    <t>2.9%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>-261</t>
-  </si>
-  <si>
-    <t>+310</t>
-  </si>
-  <si>
-    <t>+3348</t>
-  </si>
-  <si>
-    <t>+24900</t>
+    <t>72.8%</t>
+  </si>
+  <si>
+    <t>22.8%</t>
+  </si>
+  <si>
+    <t>4.1%</t>
+  </si>
+  <si>
+    <t>-268</t>
+  </si>
+  <si>
+    <t>+339</t>
+  </si>
+  <si>
+    <t>+2339</t>
   </si>
 </sst>
 </file>
@@ -724,10 +730,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -738,38 +744,38 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -780,10 +786,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -794,10 +800,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -808,10 +814,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -822,10 +828,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -836,10 +842,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -850,10 +856,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -891,10 +897,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -905,10 +911,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -919,10 +925,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -933,10 +939,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -947,10 +953,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -961,10 +967,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -975,10 +981,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -989,10 +995,10 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1003,10 +1009,10 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1017,10 +1023,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/odds/0755 Fantasy Football 2025 Betting Odds.xlsx
+++ b/odds/0755 Fantasy Football 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
   <si>
     <t>Record</t>
   </si>
@@ -33,151 +33,115 @@
     <t>Michael, The Baker</t>
   </si>
   <si>
+    <t>Division iPad</t>
+  </si>
+  <si>
     <t>Mr Steinfeld's Stars</t>
   </si>
   <si>
-    <t>Division iPad</t>
-  </si>
-  <si>
     <t>I'm Batman</t>
   </si>
   <si>
+    <t>3rd World Immigrant</t>
+  </si>
+  <si>
     <t>Griddy Little Liars</t>
   </si>
   <si>
-    <t>3rd World Immigrant</t>
-  </si>
-  <si>
     <t>Scrappy Dub</t>
   </si>
   <si>
     <t>All my homies hate Dallas</t>
   </si>
   <si>
+    <t>Chicken Fried Chicken Meal</t>
+  </si>
+  <si>
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>Chicken Fried Chicken Meal</t>
-  </si>
-  <si>
-    <t>10-1</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>2-9</t>
+    <t>11-1</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>3-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.7%</t>
-  </si>
-  <si>
-    <t>99.6%</t>
-  </si>
-  <si>
-    <t>97.9%</t>
-  </si>
-  <si>
-    <t>96.0%</t>
-  </si>
-  <si>
-    <t>71.5%</t>
-  </si>
-  <si>
-    <t>20.3%</t>
-  </si>
-  <si>
-    <t>14.6%</t>
-  </si>
-  <si>
-    <t>0.3%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
+    <t>99.8%</t>
+  </si>
+  <si>
+    <t>91.2%</t>
+  </si>
+  <si>
+    <t>83.4%</t>
+  </si>
+  <si>
+    <t>78.7%</t>
+  </si>
+  <si>
+    <t>34.7%</t>
+  </si>
+  <si>
+    <t>12.2%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-33233</t>
-  </si>
-  <si>
-    <t>-24900</t>
-  </si>
-  <si>
-    <t>-4662</t>
-  </si>
-  <si>
-    <t>-2400</t>
-  </si>
-  <si>
-    <t>-251</t>
-  </si>
-  <si>
-    <t>+393</t>
-  </si>
-  <si>
-    <t>+585</t>
-  </si>
-  <si>
-    <t>+33233</t>
-  </si>
-  <si>
-    <t>+99900</t>
+    <t>-49900</t>
+  </si>
+  <si>
+    <t>-1036</t>
+  </si>
+  <si>
+    <t>-502</t>
+  </si>
+  <si>
+    <t>-369</t>
+  </si>
+  <si>
+    <t>+188</t>
+  </si>
+  <si>
+    <t>+720</t>
+  </si>
+  <si>
+    <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>99.1%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>-11011</t>
-  </si>
-  <si>
-    <t>+16567</t>
-  </si>
-  <si>
-    <t>+∞</t>
-  </si>
-  <si>
-    <t>72.8%</t>
-  </si>
-  <si>
-    <t>22.8%</t>
-  </si>
-  <si>
-    <t>4.1%</t>
-  </si>
-  <si>
-    <t>-268</t>
-  </si>
-  <si>
-    <t>+339</t>
-  </si>
-  <si>
-    <t>+2339</t>
+    <t>66.4%</t>
+  </si>
+  <si>
+    <t>33.6%</t>
+  </si>
+  <si>
+    <t>-198</t>
+  </si>
+  <si>
+    <t>+198</t>
   </si>
 </sst>
 </file>
@@ -566,7 +530,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -577,10 +541,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -588,13 +552,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -602,13 +566,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -616,13 +580,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -633,10 +597,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -647,10 +611,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -661,10 +625,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -675,10 +639,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -689,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -730,136 +694,136 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -891,142 +855,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/odds/0755 Fantasy Football 2025 Betting Odds.xlsx
+++ b/odds/0755 Fantasy Football 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
   <si>
     <t>Record</t>
   </si>
@@ -33,13 +33,16 @@
     <t>Michael, The Baker</t>
   </si>
   <si>
+    <t>I'm Batman</t>
+  </si>
+  <si>
+    <t>Mr Steinfeld's Stars</t>
+  </si>
+  <si>
     <t>Division iPad</t>
   </si>
   <si>
-    <t>Mr Steinfeld's Stars</t>
-  </si>
-  <si>
-    <t>I'm Batman</t>
+    <t>Scrappy Dub</t>
   </si>
   <si>
     <t>3rd World Immigrant</t>
@@ -48,9 +51,6 @@
     <t>Griddy Little Liars</t>
   </si>
   <si>
-    <t>Scrappy Dub</t>
-  </si>
-  <si>
     <t>All my homies hate Dallas</t>
   </si>
   <si>
@@ -60,46 +60,31 @@
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>11-1</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>3-9</t>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>3-10</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.8%</t>
-  </si>
-  <si>
-    <t>91.2%</t>
-  </si>
-  <si>
-    <t>83.4%</t>
-  </si>
-  <si>
-    <t>78.7%</t>
-  </si>
-  <si>
-    <t>34.7%</t>
-  </si>
-  <si>
-    <t>12.2%</t>
+    <t>58.9%</t>
+  </si>
+  <si>
+    <t>58.2%</t>
+  </si>
+  <si>
+    <t>54.8%</t>
+  </si>
+  <si>
+    <t>28.1%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -108,22 +93,16 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-49900</t>
-  </si>
-  <si>
-    <t>-1036</t>
-  </si>
-  <si>
-    <t>-502</t>
-  </si>
-  <si>
-    <t>-369</t>
-  </si>
-  <si>
-    <t>+188</t>
-  </si>
-  <si>
-    <t>+720</t>
+    <t>-143</t>
+  </si>
+  <si>
+    <t>-139</t>
+  </si>
+  <si>
+    <t>-121</t>
+  </si>
+  <si>
+    <t>+256</t>
   </si>
   <si>
     <t>+∞</t>
@@ -132,16 +111,16 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>66.4%</t>
-  </si>
-  <si>
-    <t>33.6%</t>
-  </si>
-  <si>
-    <t>-198</t>
-  </si>
-  <si>
-    <t>+198</t>
+    <t>76.8%</t>
+  </si>
+  <si>
+    <t>23.2%</t>
+  </si>
+  <si>
+    <t>-331</t>
+  </si>
+  <si>
+    <t>+331</t>
   </si>
 </sst>
 </file>
@@ -527,10 +506,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -541,10 +520,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -552,13 +531,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -566,13 +545,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -580,13 +559,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -594,13 +573,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -608,13 +587,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -622,13 +601,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -636,13 +615,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -650,13 +629,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -694,38 +673,38 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -733,13 +712,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -747,41 +726,41 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -789,27 +768,27 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -817,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -847,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -855,30 +834,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -889,38 +868,38 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -928,13 +907,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -942,55 +921,55 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/odds/0755 Fantasy Football 2025 Betting Odds.xlsx
+++ b/odds/0755 Fantasy Football 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
   <si>
     <t>Record</t>
   </si>
@@ -36,91 +36,61 @@
     <t>I'm Batman</t>
   </si>
   <si>
+    <t>3rd World Immigrant</t>
+  </si>
+  <si>
     <t>Mr Steinfeld's Stars</t>
   </si>
   <si>
+    <t>Scrappy Dub</t>
+  </si>
+  <si>
     <t>Division iPad</t>
   </si>
   <si>
-    <t>Scrappy Dub</t>
-  </si>
-  <si>
-    <t>3rd World Immigrant</t>
+    <t>All my homies hate Dallas</t>
+  </si>
+  <si>
+    <t>Chicken Fried Chicken Meal</t>
   </si>
   <si>
     <t>Griddy Little Liars</t>
   </si>
   <si>
-    <t>All my homies hate Dallas</t>
-  </si>
-  <si>
-    <t>Chicken Fried Chicken Meal</t>
-  </si>
-  <si>
     <t>AJ's Awesome Team</t>
   </si>
   <si>
-    <t>11-2</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>3-10</t>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>6-8</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>58.9%</t>
-  </si>
-  <si>
-    <t>58.2%</t>
-  </si>
-  <si>
-    <t>54.8%</t>
-  </si>
-  <si>
-    <t>28.1%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-143</t>
-  </si>
-  <si>
-    <t>-139</t>
-  </si>
-  <si>
-    <t>-121</t>
-  </si>
-  <si>
-    <t>+256</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>76.8%</t>
-  </si>
-  <si>
-    <t>23.2%</t>
-  </si>
-  <si>
-    <t>-331</t>
-  </si>
-  <si>
-    <t>+331</t>
   </si>
 </sst>
 </file>
@@ -506,10 +476,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -520,10 +490,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -531,13 +501,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -545,13 +515,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -562,10 +532,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -573,13 +543,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -593,7 +563,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -601,13 +571,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -615,13 +585,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -629,13 +599,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -673,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -687,52 +657,52 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -743,52 +713,52 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -796,13 +766,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -837,139 +807,139 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
